--- a/Doc/2.UI/経理DB/機能要望（経理DB）.xlsx
+++ b/Doc/2.UI/経理DB/機能要望（経理DB）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17235" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="17235" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="改善要望" sheetId="2" r:id="rId1"/>
@@ -472,7 +472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -507,6 +507,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -794,7 +797,7 @@
   </sheetPr>
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -843,7 +846,7 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1"/>
@@ -860,7 +863,7 @@
       <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1"/>
@@ -875,7 +878,7 @@
       <c r="D6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="1"/>
